--- a/assets/excel/estado-resultados.xlsx
+++ b/assets/excel/estado-resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiha\Desktop\Emiliano\9no\Administracion\Proyecto\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F0D23-1A65-4225-8163-50B647314AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F6E833-44CF-4755-8C21-5C5DE71DA4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{879403F4-2FA4-49B8-BAED-6F41A542EE8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>May - Sep 2022</t>
   </si>
@@ -95,13 +95,31 @@
   </si>
   <si>
     <t>Resultado neto después de impuestos a la utilidad</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Directos</t>
+  </si>
+  <si>
+    <t>Indirectos</t>
+  </si>
+  <si>
+    <t>Gastos de operación</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +140,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,16 +164,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,31 +514,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2810ED4-B3BD-48B1-8692-FF1318EE14C7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G3" sqref="G3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>505910</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <f>(C2*E2)</f>
         <v>131536.6</v>
       </c>
@@ -493,7 +551,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -501,240 +559,376 @@
       <c r="C3" s="2">
         <v>505910</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>(C3*E3)</f>
         <v>131536.6</v>
       </c>
       <c r="E3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4">
+      <c r="D4" s="3">
         <f>(C4*E4)</f>
         <v>0</v>
       </c>
       <c r="E4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>2600</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D20" si="0">(C5*E5)</f>
         <v>676</v>
       </c>
       <c r="E5">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>503310</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>130860.6</v>
       </c>
       <c r="E6">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
+        <f>(C13*E13)</f>
+        <v>17300.400000000001</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7">
+        <f>(C8*E8)</f>
+        <v>77563.199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>379620</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>98701.2</v>
       </c>
       <c r="E7">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <f>(C9*E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>298320</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="3">
+        <f>(C8*E8)</f>
         <v>77563.199999999997</v>
       </c>
       <c r="E8">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7">
+        <f>(C10*E10)</f>
+        <v>3164.2000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <f>(C11*E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>12170</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D10" s="3">
+        <f>(C10*E10)</f>
         <v>3164.2000000000003</v>
       </c>
       <c r="E10">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7">
+        <f>(C12*E12)</f>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D11" s="3">
+        <f>(C11*E11)</f>
         <v>0</v>
       </c>
       <c r="E11">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>-10</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D12" s="3">
+        <f>(C12*E12)</f>
         <v>-2.6</v>
       </c>
       <c r="E12">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="9">
+        <f>D14</f>
+        <v>32835.4</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>66540</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="D13" s="3">
+        <f>H6</f>
         <v>17300.400000000001</v>
       </c>
       <c r="E13">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>126290</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D14" s="3">
+        <f>(C14*E14)</f>
         <v>32835.4</v>
       </c>
       <c r="E14">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8">
+        <f>D16</f>
+        <v>28.6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8">
+        <f>D15</f>
+        <v>2111.2000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
         <v>8120</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>2111.2000000000003</v>
       </c>
       <c r="E15">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8">
+        <f>D17</f>
+        <v>-228.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>110</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>28.6</v>
       </c>
       <c r="E16">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="9">
+        <f>D14</f>
+        <v>32835.4</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>-880</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>-228.8</v>
       </c>
       <c r="E17">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>133640</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>34746.400000000001</v>
       </c>
       <c r="E18">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="9">
+        <f>D6</f>
+        <v>130860.6</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>-34050</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>-8853</v>
       </c>
@@ -742,14 +936,14 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>99590</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>25893.4</v>
       </c>
